--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -124,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -12512,7 +12512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16841,7 +16841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K20" sqref="K20"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16924,7 +16924,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -17214,7 +17214,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -17504,7 +17504,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="7">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16841,7 +16841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16936,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -17226,7 +17226,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16839,9 +16839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -17232,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>300</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:9">

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -130,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -12518,7 +12518,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16845,9 +16845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16936,22 +16936,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -16974,10 +16974,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>20</v>
@@ -17006,10 +17006,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>30</v>
@@ -17038,10 +17038,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="7">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <v>40</v>
@@ -17073,7 +17073,7 @@
         <v>500</v>
       </c>
       <c r="F9" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>50</v>
@@ -17256,22 +17256,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>150</v>
       </c>
       <c r="H15" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -17576,7 +17576,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="7">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -17585,16 +17585,16 @@
         <v>100</v>
       </c>
       <c r="F25" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J25" s="7">
         <v>320</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16843,11 +16843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J34"/>
+  <dimension ref="A3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16936,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -16948,13 +16948,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="7">
         <v>320</v>
@@ -16968,7 +16968,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="7">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
@@ -16983,13 +16983,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J6" s="7">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17000,7 +17000,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -17012,30 +17012,30 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J7" s="7">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="D8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <v>10</v>
@@ -17044,848 +17044,176 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J8" s="7">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="7">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="D9" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="7">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="D10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J10" s="7">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B11" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" s="7">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B12" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J12" s="7">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B13" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="D13" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13" s="7">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13" s="7">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="J13" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7">
-        <v>1004</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="7">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7">
-        <v>100</v>
-      </c>
-      <c r="H14" s="7">
-        <v>14</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10</v>
-      </c>
-      <c r="J14" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3000</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>150</v>
-      </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>200</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3000</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>300</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3</v>
-      </c>
-      <c r="G17" s="7">
-        <v>30</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3</v>
-      </c>
-      <c r="J17" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4000</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7">
-        <v>400</v>
-      </c>
-      <c r="F18" s="7">
-        <v>4</v>
-      </c>
-      <c r="G18" s="7">
-        <v>40</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4</v>
-      </c>
-      <c r="J18" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B19" s="7">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5000</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7">
-        <v>500</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7">
-        <v>50</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5</v>
-      </c>
-      <c r="J19" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B20" s="7">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6000</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6</v>
-      </c>
-      <c r="E20" s="7">
-        <v>600</v>
-      </c>
-      <c r="F20" s="7">
-        <v>6</v>
-      </c>
-      <c r="G20" s="7">
-        <v>60</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B21" s="7">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7000</v>
-      </c>
-      <c r="D21" s="7">
-        <v>7</v>
-      </c>
-      <c r="E21" s="7">
-        <v>700</v>
-      </c>
-      <c r="F21" s="7">
-        <v>7</v>
-      </c>
-      <c r="G21" s="7">
-        <v>70</v>
-      </c>
-      <c r="H21" s="7">
-        <v>11</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7</v>
-      </c>
-      <c r="J21" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B22" s="7">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8000</v>
-      </c>
-      <c r="D22" s="7">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7">
-        <v>800</v>
-      </c>
-      <c r="F22" s="7">
-        <v>8</v>
-      </c>
-      <c r="G22" s="7">
-        <v>80</v>
-      </c>
-      <c r="H22" s="7">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8</v>
-      </c>
-      <c r="J22" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B23" s="7">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9000</v>
-      </c>
-      <c r="D23" s="7">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7">
-        <v>900</v>
-      </c>
-      <c r="F23" s="7">
-        <v>9</v>
-      </c>
-      <c r="G23" s="7">
-        <v>90</v>
-      </c>
-      <c r="H23" s="7">
-        <v>13</v>
-      </c>
-      <c r="I23" s="7">
-        <v>9</v>
-      </c>
-      <c r="J23" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B24" s="7">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="7">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="7">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7">
-        <v>100</v>
-      </c>
-      <c r="H24" s="7">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10</v>
-      </c>
-      <c r="J24" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>100</v>
-      </c>
-      <c r="F25" s="7">
-        <v>20</v>
-      </c>
-      <c r="G25" s="7">
-        <v>200</v>
-      </c>
-      <c r="H25" s="7">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10</v>
-      </c>
-      <c r="J25" s="7">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7">
-        <v>20000</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>200</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7">
-        <v>200</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2</v>
-      </c>
-      <c r="J26" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7">
-        <v>300</v>
-      </c>
-      <c r="F27" s="7">
-        <v>3</v>
-      </c>
-      <c r="G27" s="7">
-        <v>300</v>
-      </c>
-      <c r="H27" s="7">
-        <v>7</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3</v>
-      </c>
-      <c r="J27" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B28" s="7">
-        <v>4</v>
-      </c>
-      <c r="C28" s="7">
-        <v>40000</v>
-      </c>
-      <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="7">
-        <v>400</v>
-      </c>
-      <c r="F28" s="7">
-        <v>4</v>
-      </c>
-      <c r="G28" s="7">
-        <v>400</v>
-      </c>
-      <c r="H28" s="7">
-        <v>8</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4</v>
-      </c>
-      <c r="J28" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B29" s="7">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D29" s="7">
-        <v>5</v>
-      </c>
-      <c r="E29" s="7">
-        <v>500</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="7">
-        <v>500</v>
-      </c>
-      <c r="H29" s="7">
-        <v>9</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5</v>
-      </c>
-      <c r="J29" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B30" s="7">
-        <v>6</v>
-      </c>
-      <c r="C30" s="7">
-        <v>60000</v>
-      </c>
-      <c r="D30" s="7">
-        <v>6</v>
-      </c>
-      <c r="E30" s="7">
-        <v>600</v>
-      </c>
-      <c r="F30" s="7">
-        <v>6</v>
-      </c>
-      <c r="G30" s="7">
-        <v>600</v>
-      </c>
-      <c r="H30" s="7">
-        <v>10</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6</v>
-      </c>
-      <c r="J30" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B31" s="7">
-        <v>7</v>
-      </c>
-      <c r="C31" s="7">
-        <v>70000</v>
-      </c>
-      <c r="D31" s="7">
-        <v>7</v>
-      </c>
-      <c r="E31" s="7">
-        <v>700</v>
-      </c>
-      <c r="F31" s="7">
-        <v>7</v>
-      </c>
-      <c r="G31" s="7">
-        <v>700</v>
-      </c>
-      <c r="H31" s="7">
-        <v>11</v>
-      </c>
-      <c r="I31" s="7">
-        <v>7</v>
-      </c>
-      <c r="J31" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B32" s="7">
-        <v>8</v>
-      </c>
-      <c r="C32" s="7">
-        <v>80000</v>
-      </c>
-      <c r="D32" s="7">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7">
-        <v>800</v>
-      </c>
-      <c r="F32" s="7">
-        <v>8</v>
-      </c>
-      <c r="G32" s="7">
-        <v>800</v>
-      </c>
-      <c r="H32" s="7">
-        <v>12</v>
-      </c>
-      <c r="I32" s="7">
-        <v>8</v>
-      </c>
-      <c r="J32" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B33" s="7">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7">
-        <v>90000</v>
-      </c>
-      <c r="D33" s="7">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7">
-        <v>900</v>
-      </c>
-      <c r="F33" s="7">
-        <v>9</v>
-      </c>
-      <c r="G33" s="7">
-        <v>900</v>
-      </c>
-      <c r="H33" s="7">
-        <v>13</v>
-      </c>
-      <c r="I33" s="7">
-        <v>9</v>
-      </c>
-      <c r="J33" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B34" s="7">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>100000</v>
-      </c>
-      <c r="D34" s="7">
-        <v>10</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F34" s="7">
-        <v>10</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H34" s="7">
-        <v>14</v>
-      </c>
-      <c r="I34" s="7">
-        <v>10</v>
-      </c>
-      <c r="J34" s="7">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16843,11 +16843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J13"/>
+  <dimension ref="A3:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16951,7 +16951,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I5" s="7">
         <v>10</v>
@@ -16983,7 +16983,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I6" s="7">
         <v>10</v>
@@ -17015,7 +17015,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I7" s="7">
         <v>20</v>
@@ -17047,7 +17047,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I8" s="7">
         <v>10</v>
@@ -17079,7 +17079,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I9" s="7">
         <v>10</v>
@@ -17111,7 +17111,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I10" s="7">
         <v>20</v>
@@ -17128,7 +17128,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -17140,10 +17140,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7">
         <v>10</v>
@@ -17160,22 +17160,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="7">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
       </c>
       <c r="E12" s="7">
+        <v>200</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>100</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7">
-        <v>100</v>
-      </c>
-      <c r="H12" s="7">
-        <v>30</v>
       </c>
       <c r="I12" s="7">
         <v>30</v>
@@ -17192,28 +17192,60 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="D13" s="7">
         <v>3</v>
       </c>
       <c r="E13" s="7">
+        <v>300</v>
+      </c>
+      <c r="F13" s="7">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
         <v>100</v>
-      </c>
-      <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7">
-        <v>300</v>
-      </c>
-      <c r="H13" s="7">
-        <v>50</v>
       </c>
       <c r="I13" s="7">
         <v>70</v>
       </c>
       <c r="J13" s="7">
         <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="7">
+        <v>100</v>
+      </c>
+      <c r="J14" s="7">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16847,7 +16847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16936,10 +16936,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7">
         <v>10</v>
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -16968,19 +16968,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
@@ -17003,16 +17003,16 @@
         <v>600</v>
       </c>
       <c r="D7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -17032,19 +17032,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -17064,19 +17064,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="7">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -17096,19 +17096,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -17131,16 +17131,16 @@
         <v>1000</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -17163,16 +17163,16 @@
         <v>1500</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7">
         <v>10</v>
       </c>
       <c r="G12" s="7">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
@@ -17192,19 +17192,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7">
         <v>15</v>
       </c>
       <c r="G13" s="7">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -17227,13 +17227,13 @@
         <v>2000</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <v>100</v>
       </c>
       <c r="F14" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16847,7 +16847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17160,7 +17160,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -17192,7 +17192,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D13" s="7">
         <v>20</v>
@@ -17201,7 +17201,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13" s="7">
         <v>120</v>
@@ -17210,7 +17210,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J13" s="7">
         <v>350</v>
@@ -17233,7 +17233,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16847,7 +16847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17230,10 +17230,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>
@@ -17245,7 +17245,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="7">
-        <v>400</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16847,7 +16847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16989,7 +16989,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="7">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17085,7 +17085,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="7">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -17163,7 +17163,7 @@
         <v>1000</v>
       </c>
       <c r="D12" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7">
         <v>100</v>
@@ -17181,7 +17181,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="7">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -17195,7 +17195,7 @@
         <v>1500</v>
       </c>
       <c r="D13" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7">
         <v>200</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16843,11 +16843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J14"/>
+  <dimension ref="A3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16942,10 +16942,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="7">
         <v>20</v>
@@ -16974,10 +16974,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="7">
         <v>35</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
         <v>80</v>
@@ -17038,13 +17038,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -17070,13 +17070,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -17102,13 +17102,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -17134,19 +17134,19 @@
         <v>10</v>
       </c>
       <c r="E11" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7">
         <v>10</v>
       </c>
       <c r="G11" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
       </c>
       <c r="I11" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J11" s="7">
         <v>320</v>
@@ -17230,10 +17230,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>
@@ -17245,6 +17245,70 @@
         <v>100</v>
       </c>
       <c r="J14" s="7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <v>2001</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>150</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="7">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
+        <v>200</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8">
+        <v>100</v>
+      </c>
+      <c r="I16" s="7">
+        <v>100</v>
+      </c>
+      <c r="J16" s="7">
         <v>430</v>
       </c>
     </row>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16847,7 +16847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16945,7 +16945,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
         <v>20</v>
@@ -16977,7 +16977,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>35</v>
@@ -17009,7 +17009,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>80</v>
@@ -17041,7 +17041,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <v>20</v>
@@ -17073,7 +17073,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>300</v>
@@ -17105,7 +17105,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>60</v>
@@ -17201,7 +17201,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7">
         <v>120</v>
@@ -17224,7 +17224,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -17256,7 +17256,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="7">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>
@@ -17288,7 +17288,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="7">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="D16" s="7">
         <v>15</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16847,7 +16847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16936,13 +16936,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>400</v>
+        <v>400000</v>
       </c>
       <c r="D5" s="7">
         <v>5</v>
       </c>
       <c r="E5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -16974,7 +16974,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -17006,7 +17006,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -17038,7 +17038,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -17070,7 +17070,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -17102,7 +17102,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>

--- a/Client/配置表/excels/MonsterAttrBase.xlsx
+++ b/Client/配置表/excels/MonsterAttrBase.xlsx
@@ -16847,7 +16847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16936,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>400000</v>
+        <v>500</v>
       </c>
       <c r="D5" s="7">
         <v>5</v>
@@ -16968,7 +16968,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
